--- a/Relatorio_anuncios_patrocinados_15d_total_MG.xlsx
+++ b/Relatorio_anuncios_patrocinados_15d_total_MG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmdel\OneDrive\Aplicativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{61B4CC2E-5C9B-4D15-B956-74342ABB2EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6870D04-5049-4FCB-9827-6E2054E393B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8771399-EA11-49EC-A246-2DB26303C721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 02-ago-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>13-jul-2025</t>
-  </si>
-  <si>
-    <t>27-jul-2025</t>
+    <t>18-jul-2025</t>
+  </si>
+  <si>
+    <t>01-ago-2025</t>
   </si>
   <si>
     <t>ads 280 aroeira orgânico</t>
@@ -328,15 +328,15 @@
     <t>MLB3991652553</t>
   </si>
   <si>
+    <t>Desativada</t>
+  </si>
+  <si>
     <t>Cera Hidrossolúvel Natural Vegana Camomila Belbras - 300g</t>
   </si>
   <si>
     <t>MLB3933985929</t>
   </si>
   <si>
-    <t>Desativada</t>
-  </si>
-  <si>
     <t>Gel Calmante Pós Depilatório Camomila E Calend Belbras 500ml</t>
   </si>
   <si>
@@ -425,15 +425,6 @@
   </si>
   <si>
     <t>MLB5454087542</t>
-  </si>
-  <si>
-    <t>Crescimento semente uva</t>
-  </si>
-  <si>
-    <t>Oleo Semente De Uva- Pos Depilacao</t>
-  </si>
-  <si>
-    <t>MLB3988750761</t>
   </si>
 </sst>
 </file>
@@ -841,7 +832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -971,46 +962,46 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>2483</v>
+        <v>1089</v>
       </c>
       <c r="H3" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I3" s="9">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="J3" s="9">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="K3" s="9">
-        <v>26.76</v>
+        <v>22.22</v>
       </c>
       <c r="L3" s="9">
-        <v>396.1500244140625</v>
+        <v>123.56999969482422</v>
       </c>
       <c r="M3" s="9">
-        <v>93.55</v>
+        <v>27.84</v>
       </c>
       <c r="N3" s="9">
-        <v>23.61</v>
+        <v>22.53</v>
       </c>
       <c r="O3" s="9">
-        <v>423.46</v>
+        <v>443.86</v>
       </c>
       <c r="P3" s="9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="S3" s="9">
-        <v>396.1500244140625</v>
+        <v>104.25</v>
       </c>
       <c r="T3" s="9">
-        <v>0</v>
+        <v>19.319999694824219</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -1157,46 +1148,46 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>72976</v>
+        <v>41267</v>
       </c>
       <c r="H6" s="9">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="I6" s="9">
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="J6" s="9">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K6" s="9">
-        <v>18.8</v>
+        <v>11.48</v>
       </c>
       <c r="L6" s="9">
-        <v>825.510009765625</v>
+        <v>238</v>
       </c>
       <c r="M6" s="9">
-        <v>115.78</v>
+        <v>36.17</v>
       </c>
       <c r="N6" s="9">
-        <v>14.02</v>
+        <v>15.2</v>
       </c>
       <c r="O6" s="9">
-        <v>713</v>
+        <v>658</v>
       </c>
       <c r="P6" s="9">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="S6" s="9">
-        <v>714</v>
+        <v>238</v>
       </c>
       <c r="T6" s="9">
-        <v>111.51000213623047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
@@ -1281,16 +1272,16 @@
         <v>27</v>
       </c>
       <c r="G8" s="9">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="H8" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8" s="9">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="J8" s="9">
-        <v>2.79</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>29</v>
@@ -1299,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>10.14</v>
+        <v>5.66</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>29</v>
@@ -1340,19 +1331,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G9" s="9">
-        <v>324</v>
+        <v>527</v>
       </c>
       <c r="H9" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="J9" s="9">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>29</v>
@@ -1361,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>8.51</v>
+        <v>9.02</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>29</v>
@@ -1396,25 +1387,25 @@
         <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="9">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.33</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>29</v>
@@ -1423,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>29</v>
@@ -1467,43 +1458,43 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>81074</v>
+        <v>61529</v>
       </c>
       <c r="H11" s="9">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="J11" s="9">
         <v>0.13</v>
       </c>
       <c r="K11" s="9">
-        <v>2.91</v>
+        <v>2.56</v>
       </c>
       <c r="L11" s="9">
-        <v>89.610000610351563</v>
+        <v>59.740001678466797</v>
       </c>
       <c r="M11" s="9">
-        <v>50.72</v>
+        <v>33.14</v>
       </c>
       <c r="N11" s="9">
-        <v>56.6</v>
+        <v>55.47</v>
       </c>
       <c r="O11" s="9">
-        <v>176.68</v>
+        <v>180.27</v>
       </c>
       <c r="P11" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="9">
-        <v>89.610000610351563</v>
+        <v>59.740001678466797</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
@@ -1529,16 +1520,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="9">
-        <v>757</v>
+        <v>585</v>
       </c>
       <c r="H12" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="J12" s="9">
-        <v>2.77</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>29</v>
@@ -1547,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>10.75</v>
+        <v>8.34</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
@@ -1591,43 +1582,43 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>1710</v>
+        <v>1413</v>
       </c>
       <c r="H13" s="9">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I13" s="9">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J13" s="9">
-        <v>4.8</v>
+        <v>5.31</v>
       </c>
       <c r="K13" s="9">
-        <v>10.98</v>
+        <v>10.67</v>
       </c>
       <c r="L13" s="9">
-        <v>167.94001770019531</v>
+        <v>149.27999877929688</v>
       </c>
       <c r="M13" s="9">
-        <v>60.34</v>
+        <v>41.17</v>
       </c>
       <c r="N13" s="9">
-        <v>35.93</v>
+        <v>27.58</v>
       </c>
       <c r="O13" s="9">
-        <v>278.32</v>
+        <v>362.59</v>
       </c>
       <c r="P13" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="9">
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S13" s="9">
-        <v>167.94001770019531</v>
+        <v>149.27999877929688</v>
       </c>
       <c r="T13" s="9">
         <v>0</v>
@@ -1715,43 +1706,43 @@
         <v>27</v>
       </c>
       <c r="G15" s="9">
-        <v>4917</v>
+        <v>3010</v>
       </c>
       <c r="H15" s="9">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="I15" s="9">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="J15" s="9">
-        <v>5.43</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="K15" s="9">
-        <v>11.24</v>
+        <v>11.33</v>
       </c>
       <c r="L15" s="9">
-        <v>650.70001220703125</v>
+        <v>372.86001586914063</v>
       </c>
       <c r="M15" s="9">
-        <v>202.98</v>
+        <v>107.95</v>
       </c>
       <c r="N15" s="9">
-        <v>31.19</v>
+        <v>28.95</v>
       </c>
       <c r="O15" s="9">
-        <v>320.57</v>
+        <v>345.4</v>
       </c>
       <c r="P15" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="9">
         <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="S15" s="9">
-        <v>650.70001220703125</v>
+        <v>372.86001586914063</v>
       </c>
       <c r="T15" s="9">
         <v>0</v>
@@ -1839,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="9">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1901,16 +1892,16 @@
         <v>27</v>
       </c>
       <c r="G18" s="9">
-        <v>1044</v>
+        <v>694</v>
       </c>
       <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2.38</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>29</v>
@@ -1919,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>29</v>
@@ -1963,46 +1954,46 @@
         <v>27</v>
       </c>
       <c r="G19" s="9">
-        <v>3262</v>
+        <v>2070</v>
       </c>
       <c r="H19" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I19" s="9">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="J19" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K19" s="9">
-        <v>15.39</v>
+        <v>0.39</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="L19" s="9">
-        <v>179.27000427246094</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="N19" s="9">
-        <v>5.37</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1863.5</v>
+        <v>4.07</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="P19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="9">
-        <v>88.269996643066406</v>
+        <v>0</v>
       </c>
       <c r="T19" s="9">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
@@ -2025,16 +2016,16 @@
         <v>27</v>
       </c>
       <c r="G20" s="9">
-        <v>1451</v>
+        <v>856</v>
       </c>
       <c r="H20" s="9">
-        <v>3</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.59</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.21</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>29</v>
@@ -2043,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="9">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>29</v>
@@ -2087,43 +2078,43 @@
         <v>27</v>
       </c>
       <c r="G21" s="9">
-        <v>3220</v>
+        <v>3055</v>
       </c>
       <c r="H21" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="9">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="J21" s="9">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="K21" s="9">
-        <v>6.67</v>
+        <v>14.29</v>
       </c>
       <c r="L21" s="9">
-        <v>73.069999694824219</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="M21" s="9">
-        <v>8.39</v>
+        <v>8.57</v>
       </c>
       <c r="N21" s="9">
-        <v>11.48</v>
+        <v>6.17</v>
       </c>
       <c r="O21" s="9">
-        <v>870.92</v>
+        <v>1619.8</v>
       </c>
       <c r="P21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="9">
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="9">
-        <v>73.069999694824219</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
@@ -2149,46 +2140,46 @@
         <v>27</v>
       </c>
       <c r="G22" s="9">
-        <v>6480</v>
+        <v>7749</v>
       </c>
       <c r="H22" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="J22" s="9">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="K22" s="9">
-        <v>4.08</v>
+        <v>3.77</v>
       </c>
       <c r="L22" s="9">
-        <v>301.58001708984375</v>
+        <v>303.1199951171875</v>
       </c>
       <c r="M22" s="9">
-        <v>63.97</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="N22" s="9">
-        <v>21.21</v>
+        <v>22.08</v>
       </c>
       <c r="O22" s="9">
-        <v>471.44</v>
+        <v>452.89</v>
       </c>
       <c r="P22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="9">
         <v>2</v>
       </c>
       <c r="S22" s="9">
-        <v>153.8699951171875</v>
+        <v>303.1199951171875</v>
       </c>
       <c r="T22" s="9">
-        <v>147.71000671386719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
@@ -2211,43 +2202,43 @@
         <v>27</v>
       </c>
       <c r="G23" s="9">
-        <v>7279</v>
+        <v>6660</v>
       </c>
       <c r="H23" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="J23" s="9">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="K23" s="9">
-        <v>2.33</v>
+        <v>8.57</v>
       </c>
       <c r="L23" s="9">
-        <v>153.8699951171875</v>
+        <v>452.3699951171875</v>
       </c>
       <c r="M23" s="9">
-        <v>59.92</v>
+        <v>44.77</v>
       </c>
       <c r="N23" s="9">
-        <v>38.94</v>
+        <v>9.9</v>
       </c>
       <c r="O23" s="9">
-        <v>256.79000000000002</v>
+        <v>1010.4</v>
       </c>
       <c r="P23" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="9">
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23" s="9">
-        <v>153.8699951171875</v>
+        <v>452.3699951171875</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
@@ -2273,110 +2264,49 @@
         <v>27</v>
       </c>
       <c r="G24" s="9">
-        <v>15448</v>
+        <v>12484</v>
       </c>
       <c r="H24" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J24" s="9">
         <v>0.16</v>
       </c>
       <c r="K24" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L24" s="9">
-        <v>146.13999938964844</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="M24" s="9">
-        <v>17.82</v>
+        <v>11.38</v>
       </c>
       <c r="N24" s="9">
-        <v>12.19</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O24" s="9">
-        <v>820.09</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="P24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9">
         <v>2</v>
       </c>
       <c r="S24" s="9">
-        <v>73.069999694824219</v>
+        <v>138.82000732421875</v>
       </c>
       <c r="T24" s="9">
-        <v>73.069999694824219</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="9">
-        <v>40366</v>
-      </c>
-      <c r="H25" s="9">
-        <v>112</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1.79</v>
-      </c>
-      <c r="L25" s="9">
-        <v>62.560001373291016</v>
-      </c>
-      <c r="M25" s="9">
-        <v>50.67</v>
-      </c>
-      <c r="N25" s="9">
-        <v>80.989999999999995</v>
-      </c>
-      <c r="O25" s="9">
-        <v>123.47</v>
-      </c>
-      <c r="P25" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <v>2</v>
-      </c>
-      <c r="S25" s="9">
-        <v>62.560001373291016</v>
-      </c>
-      <c r="T25" s="9">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:20" ht="15.75" customHeight="1"/>
